--- a/data/output/FV2504_FV2410/UTILMD/55001.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="545">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="545">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1807,6 +1807,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U292" totalsRowShown="0">
+  <autoFilter ref="A1:U292"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2096,7 +2126,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14295,5 +14328,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55001.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5895" uniqueCount="829">
   <si>
     <t>#</t>
   </si>
@@ -7242,44 +7242,42 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -9738,44 +9736,42 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M147" s="5" t="s">
+      <c r="K147" s="2"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V147" s="5"/>
+      <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -9913,9 +9909,7 @@
         <v>382</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>44</v>
       </c>
@@ -13044,44 +13038,42 @@
       <c r="V227" s="5"/>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5" t="s">
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M228" s="5" t="s">
+      <c r="K228" s="2"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N228" s="5" t="s">
+      <c r="N228" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O228" s="5"/>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5" t="s">
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V228" s="5"/>
+      <c r="V228" s="2"/>
     </row>
     <row r="229" spans="1:22">
       <c r="A229" s="5" t="s">
@@ -13192,44 +13184,42 @@
       <c r="V230" s="5"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5" t="s">
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K231" s="5"/>
-      <c r="L231" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M231" s="5" t="s">
+      <c r="K231" s="2"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N231" s="5" t="s">
+      <c r="N231" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O231" s="5"/>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5" t="s">
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V231" s="5"/>
+      <c r="V231" s="2"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="5" t="s">
@@ -13427,9 +13417,7 @@
         <v>382</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>62</v>
       </c>
@@ -13483,9 +13471,7 @@
         <v>382</v>
       </c>
       <c r="K236" s="5"/>
-      <c r="L236" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="L236" s="4"/>
       <c r="M236" s="5" t="s">
         <v>62</v>
       </c>
@@ -14363,9 +14349,7 @@
         <v>382</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>64</v>
       </c>
@@ -14939,9 +14923,7 @@
         <v>382</v>
       </c>
       <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="L264" s="4"/>
       <c r="M264" s="5" t="s">
         <v>67</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55001.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55001.xlsx
@@ -2643,7 +2643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2666,6 +2666,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2674,6 +2677,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3116,7 +3122,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3480,7 +3486,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3626,7 +3632,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3828,7 +3834,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4136,7 +4142,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4336,7 +4342,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4710,7 +4716,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5018,7 +5024,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5200,24 +5206,24 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M43" s="5"/>
@@ -5235,33 +5241,33 @@
       <c r="A44" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M44" s="5"/>
@@ -5279,33 +5285,33 @@
       <c r="A45" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M45" s="5"/>
@@ -5323,31 +5329,31 @@
       <c r="A46" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M46" s="5"/>
@@ -5362,49 +5368,49 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>381</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>381</v>
       </c>
       <c r="V47" s="6" t="s">
@@ -5588,26 +5594,26 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>390</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -5616,23 +5622,23 @@
       <c r="L51" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P51" s="5"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>390</v>
       </c>
       <c r="V51" s="6" t="s">
@@ -5822,26 +5828,26 @@
       <c r="B55" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M55" s="5"/>
@@ -5859,33 +5865,33 @@
       <c r="A56" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M56" s="5"/>
@@ -5903,33 +5909,33 @@
       <c r="A57" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M57" s="5"/>
@@ -5947,31 +5953,31 @@
       <c r="A58" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M58" s="5"/>
@@ -5989,31 +5995,31 @@
       <c r="A59" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M59" s="5"/>
@@ -6031,31 +6037,31 @@
       <c r="A60" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M60" s="5"/>
@@ -6076,26 +6082,26 @@
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M61" s="5"/>
@@ -6113,33 +6119,33 @@
       <c r="A62" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="J62" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M62" s="5"/>
@@ -6157,33 +6163,33 @@
       <c r="A63" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="J63" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M63" s="5"/>
@@ -6201,31 +6207,31 @@
       <c r="A64" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="J64" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M64" s="5"/>
@@ -6246,24 +6252,24 @@
       <c r="B65" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M65" s="5"/>
@@ -6281,33 +6287,33 @@
       <c r="A66" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="J66" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M66" s="5"/>
@@ -6325,31 +6331,31 @@
       <c r="A67" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="J67" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M67" s="5"/>
@@ -6377,29 +6383,29 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11" t="s">
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11" t="s">
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V68" s="11"/>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -6415,35 +6421,35 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -6459,35 +6465,35 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="U70" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="U70" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -6503,33 +6509,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11" t="s">
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="U71" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V71" s="11"/>
+      <c r="U71" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
@@ -6545,35 +6551,35 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11" t="s">
+      <c r="S72" s="13"/>
+      <c r="T72" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="U72" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V72" s="11"/>
+      <c r="U72" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -6589,33 +6595,33 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11" t="s">
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11" t="s">
+      <c r="S73" s="13"/>
+      <c r="T73" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="U73" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V73" s="11" t="s">
+      <c r="U73" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V73" s="13" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6633,35 +6639,35 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="U74" s="11" t="s">
+      <c r="U74" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="V74" s="11"/>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -6677,50 +6683,50 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11" t="s">
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="U75" s="11" t="s">
+      <c r="U75" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="V75" s="11"/>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="6" t="s">
         <v>393</v>
       </c>
@@ -6730,18 +6736,18 @@
       <c r="L76" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
       <c r="U76" s="6" t="s">
         <v>513</v>
       </c>
@@ -6924,22 +6930,22 @@
       <c r="B80" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M80" s="5"/>
@@ -6957,27 +6963,27 @@
       <c r="A81" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M81" s="5"/>
@@ -6995,33 +7001,33 @@
       <c r="A82" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="J82" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M82" s="5"/>
@@ -7039,33 +7045,33 @@
       <c r="A83" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L83" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M83" s="5"/>
@@ -7093,25 +7099,25 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11" t="s">
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="V84" s="11" t="s">
+      <c r="V84" s="13" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7129,29 +7135,29 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11" t="s">
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11" t="s">
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V85" s="11"/>
+      <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -7167,35 +7173,35 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="P86" s="11" t="s">
+      <c r="P86" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q86" s="11" t="s">
+      <c r="Q86" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="R86" s="11" t="s">
+      <c r="R86" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11" t="s">
+      <c r="S86" s="13"/>
+      <c r="T86" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="U86" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V86" s="11"/>
+      <c r="U86" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -7211,33 +7217,33 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="11" t="s">
+      <c r="Q87" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11" t="s">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="U87" s="11" t="s">
+      <c r="U87" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="V87" s="11" t="s">
+      <c r="V87" s="13" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7262,7 +7268,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7461,25 +7467,25 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11" t="s">
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V92" s="11"/>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -7495,29 +7501,29 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11" t="s">
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11" t="s">
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V93" s="11"/>
+      <c r="V93" s="13"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -7533,35 +7539,35 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="Q94" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R94" s="11" t="s">
+      <c r="R94" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11" t="s">
+      <c r="S94" s="13"/>
+      <c r="T94" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="U94" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V94" s="11"/>
+      <c r="U94" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V94" s="13"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -7577,33 +7583,33 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="Q95" s="11" t="s">
+      <c r="Q95" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11" t="s">
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="U95" s="11" t="s">
+      <c r="U95" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="V95" s="11" t="s">
+      <c r="V95" s="13" t="s">
         <v>536</v>
       </c>
     </row>
@@ -7621,29 +7627,29 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11" t="s">
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11" t="s">
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V96" s="11"/>
+      <c r="V96" s="13"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -7659,35 +7665,35 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="Q97" s="11" t="s">
+      <c r="Q97" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="R97" s="11" t="s">
+      <c r="R97" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11" t="s">
+      <c r="S97" s="13"/>
+      <c r="T97" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="U97" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V97" s="11"/>
+      <c r="U97" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -7703,33 +7709,33 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="Q98" s="11" t="s">
+      <c r="Q98" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="U98" s="11" t="s">
+      <c r="U98" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="V98" s="11" t="s">
+      <c r="V98" s="13" t="s">
         <v>537</v>
       </c>
     </row>
@@ -7747,35 +7753,35 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="Q99" s="11" t="s">
+      <c r="Q99" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="R99" s="11" t="s">
+      <c r="R99" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11" t="s">
+      <c r="S99" s="13"/>
+      <c r="T99" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="U99" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V99" s="11"/>
+      <c r="U99" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V99" s="13"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -7791,25 +7797,25 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M100" s="11" t="s">
+      <c r="M100" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11" t="s">
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V100" s="11"/>
+      <c r="V100" s="13"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -7825,29 +7831,29 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11" t="s">
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11" t="s">
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V101" s="11"/>
+      <c r="V101" s="13"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -7863,35 +7869,35 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q102" s="11" t="s">
+      <c r="Q102" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="R102" s="11" t="s">
+      <c r="R102" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11" t="s">
+      <c r="S102" s="13"/>
+      <c r="T102" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="U102" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V102" s="11"/>
+      <c r="U102" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7907,29 +7913,29 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11" t="s">
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11" t="s">
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="V103" s="11" t="s">
+      <c r="V103" s="13" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7947,35 +7953,35 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q104" s="11" t="s">
+      <c r="Q104" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R104" s="11" t="s">
+      <c r="R104" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11" t="s">
+      <c r="S104" s="13"/>
+      <c r="T104" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="U104" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V104" s="11"/>
+      <c r="U104" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V104" s="13"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7991,33 +7997,33 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q105" s="11" t="s">
+      <c r="Q105" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11" t="s">
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="U105" s="11" t="s">
+      <c r="U105" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="V105" s="11" t="s">
+      <c r="V105" s="13" t="s">
         <v>539</v>
       </c>
     </row>
@@ -8035,29 +8041,29 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11" t="s">
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11" t="s">
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="V106" s="11" t="s">
+      <c r="V106" s="13" t="s">
         <v>540</v>
       </c>
     </row>
@@ -8075,35 +8081,35 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="U107" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V107" s="11"/>
+      <c r="U107" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -8119,33 +8125,33 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="Q108" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U108" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="V108" s="11" t="s">
+      <c r="V108" s="13" t="s">
         <v>541</v>
       </c>
     </row>
@@ -8163,25 +8169,25 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11" t="s">
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="V109" s="11" t="s">
+      <c r="V109" s="13" t="s">
         <v>542</v>
       </c>
     </row>
@@ -8199,29 +8205,29 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11" t="s">
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11" t="s">
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V110" s="11"/>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -8237,35 +8243,35 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q111" s="11" t="s">
+      <c r="Q111" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="R111" s="11" t="s">
+      <c r="R111" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="U111" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V111" s="11"/>
+      <c r="U111" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -8281,33 +8287,33 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="Q112" s="11" t="s">
+      <c r="Q112" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11" t="s">
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="U112" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="V112" s="11" t="s">
+      <c r="V112" s="13" t="s">
         <v>543</v>
       </c>
     </row>
@@ -8325,25 +8331,25 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11" t="s">
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13"/>
+      <c r="U113" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V113" s="11"/>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -8359,29 +8365,29 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11" t="s">
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
-      <c r="U114" s="11" t="s">
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="V114" s="11"/>
+      <c r="V114" s="13"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -8397,35 +8403,35 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P115" s="11" t="s">
+      <c r="P115" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q115" s="11" t="s">
+      <c r="Q115" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="R115" s="11" t="s">
+      <c r="R115" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11" t="s">
+      <c r="S115" s="13"/>
+      <c r="T115" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="U115" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="V115" s="11"/>
+      <c r="U115" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="V115" s="13"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -8441,35 +8447,35 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="N116" s="11" t="s">
+      <c r="N116" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="Q116" s="11" t="s">
+      <c r="Q116" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="R116" s="11" t="s">
+      <c r="R116" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11" t="s">
+      <c r="S116" s="13"/>
+      <c r="T116" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="U116" s="11" t="s">
+      <c r="U116" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="V116" s="11"/>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -8485,33 +8491,33 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="N117" s="11" t="s">
+      <c r="N117" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11" t="s">
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11" t="s">
+      <c r="S117" s="13"/>
+      <c r="T117" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="U117" s="11" t="s">
+      <c r="U117" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="V117" s="11"/>
+      <c r="V117" s="13"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -8527,29 +8533,29 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-      <c r="L118" s="10" t="s">
+      <c r="L118" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M118" s="11" t="s">
+      <c r="M118" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="N118" s="11" t="s">
+      <c r="N118" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O118" s="11" t="s">
+      <c r="O118" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="11" t="s">
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11"/>
-      <c r="U118" s="11" t="s">
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="V118" s="11" t="s">
+      <c r="V118" s="13" t="s">
         <v>544</v>
       </c>
     </row>
@@ -8567,35 +8573,35 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="N119" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q119" s="11" t="s">
+      <c r="Q119" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="R119" s="11" t="s">
+      <c r="R119" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11" t="s">
+      <c r="S119" s="13"/>
+      <c r="T119" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="U119" s="11" t="s">
+      <c r="U119" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="V119" s="11"/>
+      <c r="V119" s="13"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8611,33 +8617,33 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="N120" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O120" s="11" t="s">
+      <c r="O120" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="11" t="s">
+      <c r="P120" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11" t="s">
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11" t="s">
+      <c r="S120" s="13"/>
+      <c r="T120" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="U120" s="11" t="s">
+      <c r="U120" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="V120" s="11"/>
+      <c r="V120" s="13"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -8653,33 +8659,33 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N121" s="11" t="s">
+      <c r="N121" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O121" s="11" t="s">
+      <c r="O121" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11" t="s">
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11" t="s">
+      <c r="S121" s="13"/>
+      <c r="T121" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="U121" s="11" t="s">
+      <c r="U121" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="V121" s="11"/>
+      <c r="V121" s="13"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -8695,33 +8701,33 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N122" s="11" t="s">
+      <c r="N122" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O122" s="11" t="s">
+      <c r="O122" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="11" t="s">
+      <c r="P122" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11" t="s">
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11" t="s">
+      <c r="S122" s="13"/>
+      <c r="T122" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="U122" s="11" t="s">
+      <c r="U122" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="V122" s="11"/>
+      <c r="V122" s="13"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -8737,50 +8743,50 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="N123" s="11" t="s">
+      <c r="N123" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="11" t="s">
+      <c r="P123" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="11" t="s">
+      <c r="Q123" s="13"/>
+      <c r="R123" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11" t="s">
+      <c r="S123" s="13"/>
+      <c r="T123" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="U123" s="11" t="s">
+      <c r="U123" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="V123" s="11"/>
+      <c r="V123" s="13"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
       <c r="J124" s="6" t="s">
         <v>391</v>
       </c>
@@ -8790,18 +8796,18 @@
       <c r="L124" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M124" s="5" t="s">
+      <c r="M124" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
       <c r="U124" s="6" t="s">
         <v>529</v>
       </c>
@@ -8924,22 +8930,22 @@
       <c r="B127" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8" t="s">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="K127" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="L127" s="9" t="s">
+      <c r="L127" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M127" s="5"/>
@@ -8957,27 +8963,27 @@
       <c r="A128" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="s">
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8" t="s">
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K128" s="8"/>
-      <c r="L128" s="9" t="s">
+      <c r="K128" s="9"/>
+      <c r="L128" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M128" s="5"/>
@@ -8995,33 +9001,33 @@
       <c r="A129" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8" t="s">
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K129" s="8"/>
-      <c r="L129" s="9" t="s">
+      <c r="J129" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K129" s="9"/>
+      <c r="L129" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M129" s="5"/>
@@ -9039,31 +9045,31 @@
       <c r="A130" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8" t="s">
+      <c r="F130" s="9"/>
+      <c r="G130" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8" t="s">
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="J130" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K130" s="8"/>
-      <c r="L130" s="9" t="s">
+      <c r="J130" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K130" s="9"/>
+      <c r="L130" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M130" s="5"/>
@@ -9081,33 +9087,33 @@
       <c r="A131" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8" t="s">
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="J131" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="K131" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="L131" s="9" t="s">
+      <c r="L131" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M131" s="5"/>
@@ -9125,33 +9131,33 @@
       <c r="A132" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8" t="s">
+      <c r="H132" s="9"/>
+      <c r="I132" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="J132" s="8" t="s">
+      <c r="J132" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="K132" s="8"/>
-      <c r="L132" s="9" t="s">
+      <c r="K132" s="9"/>
+      <c r="L132" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M132" s="5"/>
@@ -9169,33 +9175,33 @@
       <c r="A133" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8" t="s">
+      <c r="F133" s="9"/>
+      <c r="G133" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8" t="s">
+      <c r="H133" s="9"/>
+      <c r="I133" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="J133" s="8" t="s">
+      <c r="J133" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="K133" s="8" t="s">
+      <c r="K133" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="L133" s="9" t="s">
+      <c r="L133" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M133" s="5"/>
@@ -9216,22 +9222,22 @@
       <c r="B134" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8" t="s">
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K134" s="8" t="s">
+      <c r="K134" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L134" s="9" t="s">
+      <c r="L134" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M134" s="5"/>
@@ -9249,27 +9255,27 @@
       <c r="A135" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
+      <c r="E135" s="9"/>
+      <c r="F135" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8" t="s">
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K135" s="8"/>
-      <c r="L135" s="9" t="s">
+      <c r="K135" s="9"/>
+      <c r="L135" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M135" s="5"/>
@@ -9287,33 +9293,33 @@
       <c r="A136" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="G136" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8" t="s">
+      <c r="H136" s="9"/>
+      <c r="I136" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="J136" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K136" s="8"/>
-      <c r="L136" s="9" t="s">
+      <c r="J136" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K136" s="9"/>
+      <c r="L136" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M136" s="5"/>
@@ -9331,33 +9337,33 @@
       <c r="A137" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J137" s="8" t="s">
+      <c r="J137" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="K137" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="L137" s="9" t="s">
+      <c r="L137" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M137" s="5"/>
@@ -9375,33 +9381,33 @@
       <c r="A138" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="G138" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8" t="s">
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="J138" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K138" s="8"/>
-      <c r="L138" s="9" t="s">
+      <c r="J138" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K138" s="9"/>
+      <c r="L138" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M138" s="5"/>
@@ -9422,20 +9428,20 @@
       <c r="B139" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8" t="s">
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K139" s="8"/>
-      <c r="L139" s="9" t="s">
+      <c r="K139" s="9"/>
+      <c r="L139" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M139" s="5"/>
@@ -9453,27 +9459,27 @@
       <c r="A140" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8" t="s">
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K140" s="8"/>
-      <c r="L140" s="9" t="s">
+      <c r="K140" s="9"/>
+      <c r="L140" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M140" s="5"/>
@@ -9491,33 +9497,33 @@
       <c r="A141" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G141" s="8" t="s">
+      <c r="G141" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8" t="s">
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J141" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K141" s="8"/>
-      <c r="L141" s="9" t="s">
+      <c r="J141" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K141" s="9"/>
+      <c r="L141" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M141" s="5"/>
@@ -9535,33 +9541,33 @@
       <c r="A142" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8" t="s">
+      <c r="H142" s="9"/>
+      <c r="I142" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="J142" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9" t="s">
+      <c r="J142" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K142" s="9"/>
+      <c r="L142" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M142" s="5"/>
@@ -9582,22 +9588,22 @@
       <c r="B143" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8" t="s">
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="K143" s="8" t="s">
+      <c r="K143" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="L143" s="9" t="s">
+      <c r="L143" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M143" s="5"/>
@@ -9615,27 +9621,27 @@
       <c r="A144" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="9" t="s">
+      <c r="K144" s="9"/>
+      <c r="L144" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M144" s="5"/>
@@ -9653,33 +9659,33 @@
       <c r="A145" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J145" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K145" s="8"/>
-      <c r="L145" s="9" t="s">
+      <c r="J145" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K145" s="9"/>
+      <c r="L145" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M145" s="5"/>
@@ -9697,31 +9703,31 @@
       <c r="A146" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J146" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K146" s="8"/>
-      <c r="L146" s="9" t="s">
+      <c r="J146" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K146" s="9"/>
+      <c r="L146" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M146" s="5"/>
@@ -9756,7 +9762,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9942,20 +9948,20 @@
       <c r="B151" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8" t="s">
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K151" s="8"/>
-      <c r="L151" s="9" t="s">
+      <c r="K151" s="9"/>
+      <c r="L151" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M151" s="5"/>
@@ -9973,27 +9979,27 @@
       <c r="A152" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8" t="s">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8" t="s">
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K152" s="8"/>
-      <c r="L152" s="9" t="s">
+      <c r="K152" s="9"/>
+      <c r="L152" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M152" s="5"/>
@@ -10011,33 +10017,33 @@
       <c r="A153" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G153" s="8" t="s">
+      <c r="G153" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8" t="s">
+      <c r="H153" s="9"/>
+      <c r="I153" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J153" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K153" s="8"/>
-      <c r="L153" s="9" t="s">
+      <c r="J153" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K153" s="9"/>
+      <c r="L153" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M153" s="5"/>
@@ -10058,24 +10064,24 @@
       <c r="B154" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8" t="s">
+      <c r="E154" s="9"/>
+      <c r="F154" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8" t="s">
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K154" s="8"/>
-      <c r="L154" s="9" t="s">
+      <c r="K154" s="9"/>
+      <c r="L154" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M154" s="5"/>
@@ -10093,33 +10099,33 @@
       <c r="A155" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F155" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G155" s="8" t="s">
+      <c r="G155" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8" t="s">
+      <c r="H155" s="9"/>
+      <c r="I155" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K155" s="8"/>
-      <c r="L155" s="9" t="s">
+      <c r="J155" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K155" s="9"/>
+      <c r="L155" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M155" s="5"/>
@@ -10137,33 +10143,33 @@
       <c r="A156" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G156" s="8" t="s">
+      <c r="G156" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8" t="s">
+      <c r="H156" s="9"/>
+      <c r="I156" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="J156" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K156" s="8"/>
-      <c r="L156" s="9" t="s">
+      <c r="J156" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K156" s="9"/>
+      <c r="L156" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M156" s="5"/>
@@ -10181,31 +10187,31 @@
       <c r="A157" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8" t="s">
+      <c r="F157" s="9"/>
+      <c r="G157" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8" t="s">
+      <c r="H157" s="9"/>
+      <c r="I157" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J157" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K157" s="8"/>
-      <c r="L157" s="9" t="s">
+      <c r="J157" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K157" s="9"/>
+      <c r="L157" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M157" s="5"/>
@@ -10226,24 +10232,24 @@
       <c r="B158" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
+      <c r="E158" s="9"/>
+      <c r="F158" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8" t="s">
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K158" s="8"/>
-      <c r="L158" s="9" t="s">
+      <c r="K158" s="9"/>
+      <c r="L158" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M158" s="5"/>
@@ -10261,33 +10267,33 @@
       <c r="A159" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G159" s="8" t="s">
+      <c r="G159" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8" t="s">
+      <c r="H159" s="9"/>
+      <c r="I159" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J159" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K159" s="8"/>
-      <c r="L159" s="9" t="s">
+      <c r="J159" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K159" s="9"/>
+      <c r="L159" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M159" s="5"/>
@@ -10305,33 +10311,33 @@
       <c r="A160" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G160" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8" t="s">
+      <c r="H160" s="9"/>
+      <c r="I160" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="J160" s="8" t="s">
+      <c r="J160" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="K160" s="8"/>
-      <c r="L160" s="9" t="s">
+      <c r="K160" s="9"/>
+      <c r="L160" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M160" s="5"/>
@@ -10349,33 +10355,33 @@
       <c r="A161" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8" t="s">
+      <c r="F161" s="9"/>
+      <c r="G161" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8" t="s">
+      <c r="H161" s="9"/>
+      <c r="I161" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="J161" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K161" s="8" t="s">
+      <c r="J161" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K161" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="L161" s="9" t="s">
+      <c r="L161" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M161" s="5"/>
@@ -10396,22 +10402,22 @@
       <c r="B162" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="K162" s="8" t="s">
+      <c r="K162" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="L162" s="9" t="s">
+      <c r="L162" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M162" s="5"/>
@@ -10429,27 +10435,27 @@
       <c r="A163" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8" t="s">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K163" s="8"/>
-      <c r="L163" s="9" t="s">
+      <c r="K163" s="9"/>
+      <c r="L163" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M163" s="5"/>
@@ -10467,33 +10473,33 @@
       <c r="A164" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G164" s="8" t="s">
+      <c r="G164" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8" t="s">
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J164" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K164" s="8"/>
-      <c r="L164" s="9" t="s">
+      <c r="J164" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K164" s="9"/>
+      <c r="L164" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M164" s="5"/>
@@ -10514,20 +10520,20 @@
       <c r="B165" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8" t="s">
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K165" s="8"/>
-      <c r="L165" s="9" t="s">
+      <c r="K165" s="9"/>
+      <c r="L165" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M165" s="5"/>
@@ -10545,27 +10551,27 @@
       <c r="A166" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8" t="s">
+      <c r="E166" s="9"/>
+      <c r="F166" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8" t="s">
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K166" s="8"/>
-      <c r="L166" s="9" t="s">
+      <c r="K166" s="9"/>
+      <c r="L166" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M166" s="5"/>
@@ -10583,33 +10589,33 @@
       <c r="A167" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8" t="s">
+      <c r="H167" s="9"/>
+      <c r="I167" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J167" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K167" s="8"/>
-      <c r="L167" s="9" t="s">
+      <c r="J167" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K167" s="9"/>
+      <c r="L167" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M167" s="5"/>
@@ -10630,24 +10636,24 @@
       <c r="B168" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
+      <c r="E168" s="9"/>
+      <c r="F168" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8" t="s">
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K168" s="8"/>
-      <c r="L168" s="9" t="s">
+      <c r="K168" s="9"/>
+      <c r="L168" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M168" s="5"/>
@@ -10665,33 +10671,33 @@
       <c r="A169" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8" t="s">
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J169" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="9" t="s">
+      <c r="J169" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M169" s="5"/>
@@ -10709,31 +10715,31 @@
       <c r="A170" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8" t="s">
+      <c r="F170" s="9"/>
+      <c r="G170" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8" t="s">
+      <c r="H170" s="9"/>
+      <c r="I170" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="J170" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K170" s="8"/>
-      <c r="L170" s="9" t="s">
+      <c r="J170" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K170" s="9"/>
+      <c r="L170" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M170" s="5"/>
@@ -10751,31 +10757,31 @@
       <c r="A171" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8" t="s">
+      <c r="F171" s="9"/>
+      <c r="G171" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8" t="s">
+      <c r="H171" s="9"/>
+      <c r="I171" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="J171" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K171" s="8"/>
-      <c r="L171" s="9" t="s">
+      <c r="J171" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K171" s="9"/>
+      <c r="L171" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M171" s="5"/>
@@ -10793,31 +10799,31 @@
       <c r="A172" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8" t="s">
+      <c r="F172" s="9"/>
+      <c r="G172" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8" t="s">
+      <c r="H172" s="9"/>
+      <c r="I172" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="J172" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K172" s="8"/>
-      <c r="L172" s="9" t="s">
+      <c r="J172" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K172" s="9"/>
+      <c r="L172" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M172" s="5"/>
@@ -10835,31 +10841,31 @@
       <c r="A173" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8" t="s">
+      <c r="F173" s="9"/>
+      <c r="G173" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8" t="s">
+      <c r="H173" s="9"/>
+      <c r="I173" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="J173" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K173" s="8"/>
-      <c r="L173" s="9" t="s">
+      <c r="J173" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K173" s="9"/>
+      <c r="L173" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M173" s="5"/>
@@ -10877,31 +10883,31 @@
       <c r="A174" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8" t="s">
+      <c r="F174" s="9"/>
+      <c r="G174" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8" t="s">
+      <c r="H174" s="9"/>
+      <c r="I174" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="J174" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K174" s="8"/>
-      <c r="L174" s="9" t="s">
+      <c r="J174" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K174" s="9"/>
+      <c r="L174" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M174" s="5"/>
@@ -10919,31 +10925,31 @@
       <c r="A175" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8" t="s">
+      <c r="F175" s="9"/>
+      <c r="G175" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8" t="s">
+      <c r="H175" s="9"/>
+      <c r="I175" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="J175" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K175" s="8"/>
-      <c r="L175" s="9" t="s">
+      <c r="J175" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K175" s="9"/>
+      <c r="L175" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M175" s="5"/>
@@ -10961,33 +10967,33 @@
       <c r="A176" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F176" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8" t="s">
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="J176" s="8" t="s">
+      <c r="J176" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="K176" s="8" t="s">
+      <c r="K176" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="L176" s="9" t="s">
+      <c r="L176" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M176" s="5"/>
@@ -11005,31 +11011,31 @@
       <c r="A177" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="F177" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8" t="s">
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="J177" s="8" t="s">
+      <c r="J177" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K177" s="8"/>
-      <c r="L177" s="9" t="s">
+      <c r="K177" s="9"/>
+      <c r="L177" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M177" s="5"/>
@@ -11050,20 +11056,20 @@
       <c r="B178" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8" t="s">
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="9" t="s">
+      <c r="K178" s="9"/>
+      <c r="L178" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M178" s="5"/>
@@ -11081,27 +11087,27 @@
       <c r="A179" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8" t="s">
+      <c r="E179" s="9"/>
+      <c r="F179" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K179" s="8"/>
-      <c r="L179" s="9" t="s">
+      <c r="K179" s="9"/>
+      <c r="L179" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M179" s="5"/>
@@ -11119,33 +11125,33 @@
       <c r="A180" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8" t="s">
+      <c r="H180" s="9"/>
+      <c r="I180" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J180" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K180" s="8"/>
-      <c r="L180" s="9" t="s">
+      <c r="J180" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M180" s="5"/>
@@ -11166,20 +11172,20 @@
       <c r="B181" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8" t="s">
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K181" s="8"/>
-      <c r="L181" s="9" t="s">
+      <c r="K181" s="9"/>
+      <c r="L181" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M181" s="5"/>
@@ -11197,27 +11203,27 @@
       <c r="A182" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8" t="s">
+      <c r="E182" s="9"/>
+      <c r="F182" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8" t="s">
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K182" s="8"/>
-      <c r="L182" s="9" t="s">
+      <c r="K182" s="9"/>
+      <c r="L182" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M182" s="5"/>
@@ -11235,33 +11241,33 @@
       <c r="A183" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E183" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F183" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G183" s="8" t="s">
+      <c r="G183" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8" t="s">
+      <c r="H183" s="9"/>
+      <c r="I183" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="J183" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K183" s="8"/>
-      <c r="L183" s="9" t="s">
+      <c r="J183" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K183" s="9"/>
+      <c r="L183" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M183" s="5"/>
@@ -11279,33 +11285,33 @@
       <c r="A184" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F184" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G184" s="8" t="s">
+      <c r="G184" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8" t="s">
+      <c r="H184" s="9"/>
+      <c r="I184" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J184" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K184" s="8"/>
-      <c r="L184" s="9" t="s">
+      <c r="J184" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K184" s="9"/>
+      <c r="L184" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M184" s="5"/>
@@ -11323,31 +11329,31 @@
       <c r="A185" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="E185" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8" t="s">
+      <c r="F185" s="9"/>
+      <c r="G185" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8" t="s">
+      <c r="H185" s="9"/>
+      <c r="I185" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J185" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K185" s="8"/>
-      <c r="L185" s="9" t="s">
+      <c r="J185" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K185" s="9"/>
+      <c r="L185" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M185" s="5"/>
@@ -11368,20 +11374,20 @@
       <c r="B186" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8" t="s">
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K186" s="8"/>
-      <c r="L186" s="9" t="s">
+      <c r="K186" s="9"/>
+      <c r="L186" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M186" s="5"/>
@@ -11399,27 +11405,27 @@
       <c r="A187" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8" t="s">
+      <c r="E187" s="9"/>
+      <c r="F187" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8" t="s">
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K187" s="8"/>
-      <c r="L187" s="9" t="s">
+      <c r="K187" s="9"/>
+      <c r="L187" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M187" s="5"/>
@@ -11437,33 +11443,33 @@
       <c r="A188" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E188" s="8" t="s">
+      <c r="E188" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F188" s="8" t="s">
+      <c r="F188" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G188" s="8" t="s">
+      <c r="G188" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8" t="s">
+      <c r="H188" s="9"/>
+      <c r="I188" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J188" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K188" s="8"/>
-      <c r="L188" s="9" t="s">
+      <c r="J188" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K188" s="9"/>
+      <c r="L188" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M188" s="5"/>
@@ -11481,23 +11487,23 @@
       <c r="A189" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8" t="s">
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K189" s="8"/>
-      <c r="L189" s="9" t="s">
+      <c r="K189" s="9"/>
+      <c r="L189" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M189" s="5"/>
@@ -11515,27 +11521,27 @@
       <c r="A190" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8" t="s">
+      <c r="E190" s="9"/>
+      <c r="F190" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8" t="s">
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K190" s="8"/>
-      <c r="L190" s="9" t="s">
+      <c r="K190" s="9"/>
+      <c r="L190" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M190" s="5"/>
@@ -11553,33 +11559,33 @@
       <c r="A191" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D191" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="E191" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F191" s="8" t="s">
+      <c r="F191" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G191" s="8" t="s">
+      <c r="G191" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8" t="s">
+      <c r="H191" s="9"/>
+      <c r="I191" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J191" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K191" s="8"/>
-      <c r="L191" s="9" t="s">
+      <c r="J191" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K191" s="9"/>
+      <c r="L191" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M191" s="5"/>
@@ -11597,33 +11603,33 @@
       <c r="A192" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F192" s="8" t="s">
+      <c r="F192" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8" t="s">
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="J192" s="8" t="s">
+      <c r="J192" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="K192" s="8" t="s">
+      <c r="K192" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="L192" s="9" t="s">
+      <c r="L192" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M192" s="5"/>
@@ -11641,33 +11647,33 @@
       <c r="A193" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G193" s="8" t="s">
+      <c r="G193" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8" t="s">
+      <c r="H193" s="9"/>
+      <c r="I193" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="J193" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K193" s="8"/>
-      <c r="L193" s="9" t="s">
+      <c r="J193" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K193" s="9"/>
+      <c r="L193" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M193" s="5"/>
@@ -11688,22 +11694,22 @@
       <c r="B194" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8" t="s">
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K194" s="8" t="s">
+      <c r="K194" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="L194" s="9" t="s">
+      <c r="L194" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M194" s="5"/>
@@ -11721,27 +11727,27 @@
       <c r="A195" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8" t="s">
+      <c r="E195" s="9"/>
+      <c r="F195" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8" t="s">
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K195" s="8"/>
-      <c r="L195" s="9" t="s">
+      <c r="K195" s="9"/>
+      <c r="L195" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M195" s="5"/>
@@ -11759,33 +11765,33 @@
       <c r="A196" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="D196" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E196" s="8" t="s">
+      <c r="E196" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="F196" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G196" s="8" t="s">
+      <c r="G196" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8" t="s">
+      <c r="H196" s="9"/>
+      <c r="I196" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J196" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K196" s="8"/>
-      <c r="L196" s="9" t="s">
+      <c r="J196" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K196" s="9"/>
+      <c r="L196" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M196" s="5"/>
@@ -11806,20 +11812,20 @@
       <c r="B197" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8" t="s">
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K197" s="8"/>
-      <c r="L197" s="9" t="s">
+      <c r="K197" s="9"/>
+      <c r="L197" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M197" s="5"/>
@@ -11837,27 +11843,27 @@
       <c r="A198" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8" t="s">
+      <c r="E198" s="9"/>
+      <c r="F198" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8" t="s">
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K198" s="8"/>
-      <c r="L198" s="9" t="s">
+      <c r="K198" s="9"/>
+      <c r="L198" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M198" s="5"/>
@@ -11875,33 +11881,33 @@
       <c r="A199" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F199" s="8" t="s">
+      <c r="F199" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G199" s="8" t="s">
+      <c r="G199" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8" t="s">
+      <c r="H199" s="9"/>
+      <c r="I199" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J199" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K199" s="8"/>
-      <c r="L199" s="9" t="s">
+      <c r="J199" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K199" s="9"/>
+      <c r="L199" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M199" s="5"/>
@@ -11922,24 +11928,24 @@
       <c r="B200" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8" t="s">
+      <c r="E200" s="9"/>
+      <c r="F200" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8" t="s">
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K200" s="8"/>
-      <c r="L200" s="9" t="s">
+      <c r="K200" s="9"/>
+      <c r="L200" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M200" s="5"/>
@@ -11957,33 +11963,33 @@
       <c r="A201" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E201" s="8" t="s">
+      <c r="E201" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F201" s="8" t="s">
+      <c r="F201" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G201" s="8" t="s">
+      <c r="G201" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8" t="s">
+      <c r="H201" s="9"/>
+      <c r="I201" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="J201" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K201" s="8"/>
-      <c r="L201" s="9" t="s">
+      <c r="J201" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K201" s="9"/>
+      <c r="L201" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M201" s="5"/>
@@ -12001,31 +12007,31 @@
       <c r="A202" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F202" s="8" t="s">
+      <c r="F202" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8" t="s">
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="J202" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K202" s="8"/>
-      <c r="L202" s="9" t="s">
+      <c r="J202" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K202" s="9"/>
+      <c r="L202" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M202" s="5"/>
@@ -12046,22 +12052,22 @@
       <c r="B203" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8" t="s">
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K203" s="8" t="s">
+      <c r="K203" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="L203" s="9" t="s">
+      <c r="L203" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M203" s="5"/>
@@ -12079,27 +12085,27 @@
       <c r="A204" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8" t="s">
+      <c r="E204" s="9"/>
+      <c r="F204" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8" t="s">
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K204" s="8"/>
-      <c r="L204" s="9" t="s">
+      <c r="K204" s="9"/>
+      <c r="L204" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M204" s="5"/>
@@ -12117,33 +12123,33 @@
       <c r="A205" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="F205" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G205" s="8" t="s">
+      <c r="G205" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8" t="s">
+      <c r="H205" s="9"/>
+      <c r="I205" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J205" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K205" s="8"/>
-      <c r="L205" s="9" t="s">
+      <c r="J205" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K205" s="9"/>
+      <c r="L205" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M205" s="5"/>
@@ -12164,20 +12170,20 @@
       <c r="B206" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8" t="s">
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K206" s="8"/>
-      <c r="L206" s="9" t="s">
+      <c r="K206" s="9"/>
+      <c r="L206" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M206" s="5"/>
@@ -12195,27 +12201,27 @@
       <c r="A207" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8" t="s">
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8" t="s">
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K207" s="8"/>
-      <c r="L207" s="9" t="s">
+      <c r="K207" s="9"/>
+      <c r="L207" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M207" s="5"/>
@@ -12233,33 +12239,33 @@
       <c r="A208" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E208" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F208" s="8" t="s">
+      <c r="F208" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8" t="s">
+      <c r="H208" s="9"/>
+      <c r="I208" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="J208" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K208" s="8"/>
-      <c r="L208" s="9" t="s">
+      <c r="J208" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K208" s="9"/>
+      <c r="L208" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M208" s="5"/>
@@ -12277,33 +12283,33 @@
       <c r="A209" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F209" s="8" t="s">
+      <c r="F209" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G209" s="8" t="s">
+      <c r="G209" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8" t="s">
+      <c r="H209" s="9"/>
+      <c r="I209" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J209" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K209" s="8"/>
-      <c r="L209" s="9" t="s">
+      <c r="J209" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K209" s="9"/>
+      <c r="L209" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M209" s="5"/>
@@ -12321,33 +12327,33 @@
       <c r="A210" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D210" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8" t="s">
+      <c r="F210" s="9"/>
+      <c r="G210" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8" t="s">
+      <c r="H210" s="9"/>
+      <c r="I210" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="J210" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K210" s="8" t="s">
+      <c r="J210" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K210" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="L210" s="9" t="s">
+      <c r="L210" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M210" s="5"/>
@@ -12365,27 +12371,27 @@
       <c r="A211" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D211" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8" t="s">
+      <c r="E211" s="9"/>
+      <c r="F211" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8" t="s">
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K211" s="8"/>
-      <c r="L211" s="9" t="s">
+      <c r="K211" s="9"/>
+      <c r="L211" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M211" s="5"/>
@@ -12403,31 +12409,31 @@
       <c r="A212" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F212" s="8" t="s">
+      <c r="F212" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8" t="s">
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J212" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K212" s="8"/>
-      <c r="L212" s="9" t="s">
+      <c r="J212" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K212" s="9"/>
+      <c r="L212" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M212" s="5"/>
@@ -12448,22 +12454,22 @@
       <c r="B213" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8" t="s">
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K213" s="8" t="s">
+      <c r="K213" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="L213" s="9" t="s">
+      <c r="L213" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M213" s="5"/>
@@ -12481,27 +12487,27 @@
       <c r="A214" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8" t="s">
+      <c r="E214" s="9"/>
+      <c r="F214" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8" t="s">
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K214" s="8"/>
-      <c r="L214" s="9" t="s">
+      <c r="K214" s="9"/>
+      <c r="L214" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M214" s="5"/>
@@ -12519,33 +12525,33 @@
       <c r="A215" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D215" s="8" t="s">
+      <c r="D215" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E215" s="8" t="s">
+      <c r="E215" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F215" s="8" t="s">
+      <c r="F215" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G215" s="8" t="s">
+      <c r="G215" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8" t="s">
+      <c r="H215" s="9"/>
+      <c r="I215" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J215" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K215" s="8"/>
-      <c r="L215" s="9" t="s">
+      <c r="J215" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K215" s="9"/>
+      <c r="L215" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M215" s="5"/>
@@ -12566,20 +12572,20 @@
       <c r="B216" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8" t="s">
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K216" s="8"/>
-      <c r="L216" s="9" t="s">
+      <c r="K216" s="9"/>
+      <c r="L216" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M216" s="5"/>
@@ -12597,27 +12603,27 @@
       <c r="A217" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8" t="s">
+      <c r="E217" s="9"/>
+      <c r="F217" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8" t="s">
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K217" s="8"/>
-      <c r="L217" s="9" t="s">
+      <c r="K217" s="9"/>
+      <c r="L217" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M217" s="5"/>
@@ -12635,33 +12641,33 @@
       <c r="A218" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G218" s="8" t="s">
+      <c r="G218" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8" t="s">
+      <c r="H218" s="9"/>
+      <c r="I218" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J218" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K218" s="8"/>
-      <c r="L218" s="9" t="s">
+      <c r="J218" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K218" s="9"/>
+      <c r="L218" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M218" s="5"/>
@@ -12679,27 +12685,27 @@
       <c r="A219" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8" t="s">
+      <c r="E219" s="9"/>
+      <c r="F219" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8" t="s">
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K219" s="8"/>
-      <c r="L219" s="9" t="s">
+      <c r="K219" s="9"/>
+      <c r="L219" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M219" s="5"/>
@@ -12717,31 +12723,31 @@
       <c r="A220" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E220" s="8" t="s">
+      <c r="E220" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8" t="s">
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J220" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K220" s="8"/>
-      <c r="L220" s="9" t="s">
+      <c r="J220" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K220" s="9"/>
+      <c r="L220" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M220" s="5"/>
@@ -12762,20 +12768,20 @@
       <c r="B221" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8" t="s">
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K221" s="8"/>
-      <c r="L221" s="9" t="s">
+      <c r="K221" s="9"/>
+      <c r="L221" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M221" s="5"/>
@@ -12793,27 +12799,27 @@
       <c r="A222" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8" t="s">
+      <c r="E222" s="9"/>
+      <c r="F222" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8" t="s">
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K222" s="8"/>
-      <c r="L222" s="9" t="s">
+      <c r="K222" s="9"/>
+      <c r="L222" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M222" s="5"/>
@@ -12831,33 +12837,33 @@
       <c r="A223" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D223" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F223" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G223" s="8" t="s">
+      <c r="G223" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8" t="s">
+      <c r="H223" s="9"/>
+      <c r="I223" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="J223" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K223" s="8"/>
-      <c r="L223" s="9" t="s">
+      <c r="J223" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K223" s="9"/>
+      <c r="L223" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M223" s="5"/>
@@ -12875,33 +12881,33 @@
       <c r="A224" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E224" s="8" t="s">
+      <c r="E224" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F224" s="8" t="s">
+      <c r="F224" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G224" s="8" t="s">
+      <c r="G224" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8" t="s">
+      <c r="H224" s="9"/>
+      <c r="I224" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J224" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K224" s="8"/>
-      <c r="L224" s="9" t="s">
+      <c r="J224" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K224" s="9"/>
+      <c r="L224" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M224" s="5"/>
@@ -12919,31 +12925,31 @@
       <c r="A225" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8" t="s">
+      <c r="F225" s="9"/>
+      <c r="G225" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8" t="s">
+      <c r="H225" s="9"/>
+      <c r="I225" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="J225" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K225" s="8"/>
-      <c r="L225" s="9" t="s">
+      <c r="J225" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K225" s="9"/>
+      <c r="L225" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M225" s="5"/>
@@ -12961,27 +12967,27 @@
       <c r="A226" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8" t="s">
+      <c r="E226" s="9"/>
+      <c r="F226" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
-      <c r="J226" s="8" t="s">
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K226" s="8"/>
-      <c r="L226" s="9" t="s">
+      <c r="K226" s="9"/>
+      <c r="L226" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M226" s="5"/>
@@ -12999,31 +13005,31 @@
       <c r="A227" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="D227" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E227" s="8" t="s">
+      <c r="E227" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F227" s="8" t="s">
+      <c r="F227" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8" t="s">
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J227" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K227" s="8"/>
-      <c r="L227" s="9" t="s">
+      <c r="J227" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K227" s="9"/>
+      <c r="L227" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M227" s="5"/>
@@ -13058,7 +13064,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -13204,7 +13210,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -13498,25 +13504,25 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E237" s="5"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
       <c r="J237" s="6" t="s">
         <v>405</v>
       </c>
@@ -13526,22 +13532,22 @@
       <c r="L237" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N237" s="5" t="s">
+      <c r="N237" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O237" s="5" t="s">
+      <c r="O237" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P237" s="5"/>
+      <c r="P237" s="2"/>
       <c r="Q237" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
       <c r="U237" s="6" t="s">
         <v>381</v>
       </c>
@@ -14056,22 +14062,22 @@
       <c r="V246" s="5"/>
     </row>
     <row r="247" spans="1:22">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="5" t="s">
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2" t="s">
         <v>381</v>
       </c>
       <c r="K247" s="6" t="s">
@@ -14080,19 +14086,19 @@
       <c r="L247" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M247" s="5" t="s">
+      <c r="M247" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N247" s="5" t="s">
+      <c r="N247" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O247" s="5"/>
-      <c r="P247" s="5"/>
-      <c r="Q247" s="5"/>
-      <c r="R247" s="5"/>
-      <c r="S247" s="5"/>
-      <c r="T247" s="5"/>
-      <c r="U247" s="5" t="s">
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
+      <c r="Q247" s="2"/>
+      <c r="R247" s="2"/>
+      <c r="S247" s="2"/>
+      <c r="T247" s="2"/>
+      <c r="U247" s="2" t="s">
         <v>381</v>
       </c>
       <c r="V247" s="6"/>
@@ -14382,26 +14388,26 @@
       <c r="B253" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D253" s="8" t="s">
+      <c r="D253" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8" t="s">
+      <c r="E253" s="9"/>
+      <c r="F253" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="8" t="s">
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K253" s="8" t="s">
+      <c r="K253" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="L253" s="9" t="s">
+      <c r="L253" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M253" s="5"/>
@@ -14419,33 +14425,33 @@
       <c r="A254" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D254" s="8" t="s">
+      <c r="D254" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E254" s="8" t="s">
+      <c r="E254" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F254" s="8" t="s">
+      <c r="F254" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G254" s="8" t="s">
+      <c r="G254" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8" t="s">
+      <c r="H254" s="9"/>
+      <c r="I254" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J254" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K254" s="8"/>
-      <c r="L254" s="9" t="s">
+      <c r="J254" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K254" s="9"/>
+      <c r="L254" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M254" s="5"/>
@@ -14463,31 +14469,31 @@
       <c r="A255" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D255" s="8" t="s">
+      <c r="D255" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E255" s="8" t="s">
+      <c r="E255" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F255" s="8" t="s">
+      <c r="F255" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8" t="s">
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+      <c r="I255" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="J255" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K255" s="8"/>
-      <c r="L255" s="9" t="s">
+      <c r="J255" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K255" s="9"/>
+      <c r="L255" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M255" s="5"/>
@@ -14508,26 +14514,26 @@
       <c r="B256" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D256" s="8" t="s">
+      <c r="D256" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8" t="s">
+      <c r="E256" s="9"/>
+      <c r="F256" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
-      <c r="J256" s="8" t="s">
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="K256" s="8" t="s">
+      <c r="K256" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="L256" s="9" t="s">
+      <c r="L256" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M256" s="5"/>
@@ -14545,33 +14551,33 @@
       <c r="A257" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D257" s="8" t="s">
+      <c r="D257" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E257" s="8" t="s">
+      <c r="E257" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F257" s="8" t="s">
+      <c r="F257" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G257" s="8" t="s">
+      <c r="G257" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8" t="s">
+      <c r="H257" s="9"/>
+      <c r="I257" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J257" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K257" s="8"/>
-      <c r="L257" s="9" t="s">
+      <c r="J257" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K257" s="9"/>
+      <c r="L257" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M257" s="5"/>
@@ -14589,31 +14595,31 @@
       <c r="A258" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D258" s="8" t="s">
+      <c r="D258" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="E258" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F258" s="8" t="s">
+      <c r="F258" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8" t="s">
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J258" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K258" s="8"/>
-      <c r="L258" s="9" t="s">
+      <c r="J258" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K258" s="9"/>
+      <c r="L258" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M258" s="5"/>
@@ -14628,21 +14634,21 @@
       <c r="V258" s="5"/>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
       <c r="J259" s="6" t="s">
         <v>407</v>
       </c>
@@ -14652,18 +14658,18 @@
       <c r="L259" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M259" s="5" t="s">
+      <c r="M259" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N259" s="5" t="s">
+      <c r="N259" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
+      <c r="O259" s="2"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="2"/>
+      <c r="R259" s="2"/>
+      <c r="S259" s="2"/>
+      <c r="T259" s="2"/>
       <c r="U259" s="6" t="s">
         <v>530</v>
       </c>
@@ -15184,22 +15190,22 @@
       <c r="B269" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
-      <c r="J269" s="8" t="s">
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="K269" s="8" t="s">
+      <c r="K269" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="L269" s="9" t="s">
+      <c r="L269" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M269" s="5"/>
@@ -15217,27 +15223,27 @@
       <c r="A270" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D270" s="8" t="s">
+      <c r="D270" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8" t="s">
+      <c r="E270" s="9"/>
+      <c r="F270" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G270" s="8"/>
-      <c r="H270" s="8"/>
-      <c r="I270" s="8"/>
-      <c r="J270" s="8" t="s">
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
+      <c r="I270" s="9"/>
+      <c r="J270" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K270" s="8"/>
-      <c r="L270" s="9" t="s">
+      <c r="K270" s="9"/>
+      <c r="L270" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M270" s="5"/>
@@ -15255,33 +15261,33 @@
       <c r="A271" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D271" s="8" t="s">
+      <c r="D271" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E271" s="8" t="s">
+      <c r="E271" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F271" s="8" t="s">
+      <c r="F271" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G271" s="8" t="s">
+      <c r="G271" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8" t="s">
+      <c r="H271" s="9"/>
+      <c r="I271" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="J271" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K271" s="8"/>
-      <c r="L271" s="9" t="s">
+      <c r="J271" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K271" s="9"/>
+      <c r="L271" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M271" s="5"/>
@@ -15299,31 +15305,31 @@
       <c r="A272" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D272" s="8" t="s">
+      <c r="D272" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E272" s="8" t="s">
+      <c r="E272" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F272" s="8" t="s">
+      <c r="F272" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
-      <c r="I272" s="8" t="s">
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="J272" s="8" t="s">
+      <c r="J272" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="K272" s="8"/>
-      <c r="L272" s="9" t="s">
+      <c r="K272" s="9"/>
+      <c r="L272" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M272" s="5"/>
@@ -15341,33 +15347,33 @@
       <c r="A273" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D273" s="8" t="s">
+      <c r="D273" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E273" s="8" t="s">
+      <c r="E273" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F273" s="8" t="s">
+      <c r="F273" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-      <c r="I273" s="8" t="s">
+      <c r="G273" s="9"/>
+      <c r="H273" s="9"/>
+      <c r="I273" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J273" s="8" t="s">
+      <c r="J273" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="K273" s="8" t="s">
+      <c r="K273" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="L273" s="9" t="s">
+      <c r="L273" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M273" s="5"/>
@@ -15385,31 +15391,31 @@
       <c r="A274" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D274" s="8" t="s">
+      <c r="D274" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E274" s="8" t="s">
+      <c r="E274" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F274" s="8" t="s">
+      <c r="F274" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8" t="s">
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="J274" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K274" s="8"/>
-      <c r="L274" s="9" t="s">
+      <c r="J274" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K274" s="9"/>
+      <c r="L274" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M274" s="5"/>
@@ -15427,31 +15433,31 @@
       <c r="A275" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D275" s="8" t="s">
+      <c r="D275" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E275" s="8" t="s">
+      <c r="E275" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F275" s="8" t="s">
+      <c r="F275" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8" t="s">
+      <c r="G275" s="9"/>
+      <c r="H275" s="9"/>
+      <c r="I275" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="J275" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K275" s="8"/>
-      <c r="L275" s="9" t="s">
+      <c r="J275" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K275" s="9"/>
+      <c r="L275" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M275" s="5"/>
@@ -15469,31 +15475,31 @@
       <c r="A276" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D276" s="8" t="s">
+      <c r="D276" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E276" s="8" t="s">
+      <c r="E276" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F276" s="8" t="s">
+      <c r="F276" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8" t="s">
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="J276" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K276" s="8"/>
-      <c r="L276" s="9" t="s">
+      <c r="J276" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K276" s="9"/>
+      <c r="L276" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M276" s="5"/>
@@ -15514,22 +15520,22 @@
       <c r="B277" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-      <c r="H277" s="8"/>
-      <c r="I277" s="8"/>
-      <c r="J277" s="8" t="s">
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="K277" s="8" t="s">
+      <c r="K277" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L277" s="9" t="s">
+      <c r="L277" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M277" s="5"/>
@@ -15547,27 +15553,27 @@
       <c r="A278" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D278" s="8" t="s">
+      <c r="D278" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8" t="s">
+      <c r="E278" s="9"/>
+      <c r="F278" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G278" s="8"/>
-      <c r="H278" s="8"/>
-      <c r="I278" s="8"/>
-      <c r="J278" s="8" t="s">
+      <c r="G278" s="9"/>
+      <c r="H278" s="9"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K278" s="8"/>
-      <c r="L278" s="9" t="s">
+      <c r="K278" s="9"/>
+      <c r="L278" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M278" s="5"/>
@@ -15585,33 +15591,33 @@
       <c r="A279" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D279" s="8" t="s">
+      <c r="D279" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E279" s="8" t="s">
+      <c r="E279" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F279" s="8" t="s">
+      <c r="F279" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G279" s="8" t="s">
+      <c r="G279" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8" t="s">
+      <c r="H279" s="9"/>
+      <c r="I279" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J279" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K279" s="8"/>
-      <c r="L279" s="9" t="s">
+      <c r="J279" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K279" s="9"/>
+      <c r="L279" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M279" s="5"/>
@@ -15629,31 +15635,31 @@
       <c r="A280" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D280" s="8" t="s">
+      <c r="D280" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E280" s="8" t="s">
+      <c r="E280" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F280" s="8" t="s">
+      <c r="F280" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G280" s="8"/>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8" t="s">
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
+      <c r="I280" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="J280" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K280" s="8"/>
-      <c r="L280" s="9" t="s">
+      <c r="J280" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K280" s="9"/>
+      <c r="L280" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M280" s="5"/>
@@ -15671,33 +15677,33 @@
       <c r="A281" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D281" s="8" t="s">
+      <c r="D281" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E281" s="8" t="s">
+      <c r="E281" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F281" s="8" t="s">
+      <c r="F281" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G281" s="8" t="s">
+      <c r="G281" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H281" s="8"/>
-      <c r="I281" s="8" t="s">
+      <c r="H281" s="9"/>
+      <c r="I281" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="J281" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K281" s="8"/>
-      <c r="L281" s="9" t="s">
+      <c r="J281" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K281" s="9"/>
+      <c r="L281" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M281" s="5"/>
@@ -15715,31 +15721,31 @@
       <c r="A282" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D282" s="8" t="s">
+      <c r="D282" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E282" s="8" t="s">
+      <c r="E282" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8" t="s">
+      <c r="F282" s="9"/>
+      <c r="G282" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H282" s="8"/>
-      <c r="I282" s="8" t="s">
+      <c r="H282" s="9"/>
+      <c r="I282" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J282" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K282" s="8"/>
-      <c r="L282" s="9" t="s">
+      <c r="J282" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K282" s="9"/>
+      <c r="L282" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M282" s="5"/>
@@ -15757,31 +15763,31 @@
       <c r="A283" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D283" s="8" t="s">
+      <c r="D283" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E283" s="8" t="s">
+      <c r="E283" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F283" s="8" t="s">
+      <c r="F283" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G283" s="8"/>
-      <c r="H283" s="8"/>
-      <c r="I283" s="8" t="s">
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
+      <c r="I283" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J283" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K283" s="8"/>
-      <c r="L283" s="9" t="s">
+      <c r="J283" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K283" s="9"/>
+      <c r="L283" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M283" s="5"/>
@@ -15799,31 +15805,31 @@
       <c r="A284" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D284" s="8" t="s">
+      <c r="D284" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E284" s="8" t="s">
+      <c r="E284" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F284" s="8" t="s">
+      <c r="F284" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G284" s="8"/>
-      <c r="H284" s="8"/>
-      <c r="I284" s="8" t="s">
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
+      <c r="I284" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="J284" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K284" s="8"/>
-      <c r="L284" s="9" t="s">
+      <c r="J284" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K284" s="9"/>
+      <c r="L284" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M284" s="5"/>
@@ -15841,33 +15847,33 @@
       <c r="A285" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D285" s="8" t="s">
+      <c r="D285" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E285" s="8" t="s">
+      <c r="E285" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F285" s="8" t="s">
+      <c r="F285" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G285" s="8"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8" t="s">
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="I285" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="J285" s="8" t="s">
+      <c r="J285" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="K285" s="8" t="s">
+      <c r="K285" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="L285" s="9" t="s">
+      <c r="L285" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M285" s="5"/>
@@ -15885,31 +15891,31 @@
       <c r="A286" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D286" s="8" t="s">
+      <c r="D286" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E286" s="8" t="s">
+      <c r="E286" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F286" s="8" t="s">
+      <c r="F286" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G286" s="8"/>
-      <c r="H286" s="8"/>
-      <c r="I286" s="8" t="s">
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="J286" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K286" s="8"/>
-      <c r="L286" s="9" t="s">
+      <c r="J286" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K286" s="9"/>
+      <c r="L286" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M286" s="5"/>
@@ -15930,24 +15936,24 @@
       <c r="B287" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D287" s="8" t="s">
+      <c r="D287" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8" t="s">
+      <c r="E287" s="9"/>
+      <c r="F287" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G287" s="8"/>
-      <c r="H287" s="8"/>
-      <c r="I287" s="8"/>
-      <c r="J287" s="8" t="s">
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K287" s="8"/>
-      <c r="L287" s="9" t="s">
+      <c r="K287" s="9"/>
+      <c r="L287" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M287" s="5"/>
@@ -15965,33 +15971,33 @@
       <c r="A288" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D288" s="8" t="s">
+      <c r="D288" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F288" s="8" t="s">
+      <c r="F288" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G288" s="8" t="s">
+      <c r="G288" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="H288" s="8"/>
-      <c r="I288" s="8" t="s">
+      <c r="H288" s="9"/>
+      <c r="I288" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J288" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K288" s="8"/>
-      <c r="L288" s="9" t="s">
+      <c r="J288" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K288" s="9"/>
+      <c r="L288" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M288" s="5"/>
@@ -16009,33 +16015,33 @@
       <c r="A289" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D289" s="8" t="s">
+      <c r="D289" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E289" s="8" t="s">
+      <c r="E289" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F289" s="8" t="s">
+      <c r="F289" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G289" s="8"/>
-      <c r="H289" s="8"/>
-      <c r="I289" s="8" t="s">
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
+      <c r="I289" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="J289" s="8" t="s">
+      <c r="J289" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="K289" s="8" t="s">
+      <c r="K289" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="L289" s="9" t="s">
+      <c r="L289" s="10" t="s">
         <v>445</v>
       </c>
       <c r="M289" s="5"/>
@@ -16050,48 +16056,48 @@
       <c r="V289" s="5"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C290" s="5"/>
-      <c r="D290" s="5" t="s">
+      <c r="C290" s="2"/>
+      <c r="D290" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E290" s="5"/>
+      <c r="E290" s="2"/>
       <c r="F290" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G290" s="5"/>
-      <c r="H290" s="5"/>
-      <c r="I290" s="5"/>
-      <c r="J290" s="5" t="s">
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K290" s="5"/>
+      <c r="K290" s="2"/>
       <c r="L290" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M290" s="5" t="s">
+      <c r="M290" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N290" s="5"/>
-      <c r="O290" s="5" t="s">
+      <c r="N290" s="2"/>
+      <c r="O290" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P290" s="5"/>
+      <c r="P290" s="2"/>
       <c r="Q290" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="R290" s="5"/>
-      <c r="S290" s="5"/>
-      <c r="T290" s="5"/>
-      <c r="U290" s="5" t="s">
+      <c r="R290" s="2"/>
+      <c r="S290" s="2"/>
+      <c r="T290" s="2"/>
+      <c r="U290" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V290" s="5"/>
+      <c r="V290" s="2"/>
     </row>
     <row r="291" spans="1:22">
       <c r="A291" s="5" t="s">
